--- a/biology/Biologie cellulaire et moléculaire/Endocytose/Endocytose.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Endocytose/Endocytose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'endocytose (grec endon (dedans) et kutos (cellule)) est le mécanisme de transport de molécules, voire de particules (virales, bactériennes, etc.), vers l'intérieur de la cellule.
 L'endocytose peut être effectuée par toutes les cellules eucaryotes à l'exception des hématies (globules rouges)
@@ -512,14 +524,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'endocytose est un phénomène membranaire faisant partie des mécanismes de transport avec mouvement (pseudopode). On en distingue trois types :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'endocytose est un phénomène membranaire faisant partie des mécanismes de transport avec mouvement (pseudopode). On en distingue trois types :
 l'endocytose à récepteur ;
 la pinocytose ;
 la phagocytose.
 L’endocytose (ou internalisation) a lieu quand une partie de la membrane entoure complètement une particule mineure, sans gros volume et la fait pénétrer de l’extérieur vers l’intérieur d’une cellule.
-Ce mécanisme membranaire (ou quasi-membranaire) est très important dans la vie d’une cellule, car il permet l'internalisation de molécules spécifiques grâce à des récepteurs spécifiques dans la cellule (et notamment dans le cytosol), la molécule à endocyter étant appelée ligand (par ex., la transférine (ligand) qui va se fixer aux récepteurs membranaires spécifiques de la transférine[1]).
+Ce mécanisme membranaire (ou quasi-membranaire) est très important dans la vie d’une cellule, car il permet l'internalisation de molécules spécifiques grâce à des récepteurs spécifiques dans la cellule (et notamment dans le cytosol), la molécule à endocyter étant appelée ligand (par ex., la transférine (ligand) qui va se fixer aux récepteurs membranaires spécifiques de la transférine).
 L’endocytose d’une molécule se déroule en plusieurs étapes :
 l'« adressage » spécifique de la molécule dans les « puits d’endocytose » (les zones de la membrane spécialisées dans l'endocytose) ;
 la fixation sur la face interne de la membrane d'un réseau de complexes protéiques impliquant notamment la clathrine ;
@@ -533,13 +547,7 @@
 Une partie des molécules internalisées n'est ni recyclée, ni hydrolysée. Elle passe par l'appareil de Golgi (ex. : le cholestérol, qui utilise comme protéine spécifique l'Apo B et comme transporteur membranaire le LDL).
 Selon la taille du matériel absorbé, on distingue deux processus :
 la pinocytose (« boisson » de la cellule), qui est l’ingestion de fluides ou de macromolécules au moyen de petites vésicules de diamètre inférieur ou égal à 150 nm ;
-la phagocytose (« alimentation » de la cellule), qui est l’absorption de grosses particules, voire de cellules, par des vésicules de diamètre toujours supérieur à 250 nm et pouvant atteindre plusieurs micromètres : les phagosomes.
-Pinocytose
-L'endocytose en phase liquide correspond au prélèvement d'une gouttelette (diamètre inférieur à 0,1 micromètre) d'un liquide extra cellulaire contenant ou non des petites molécules. L'ingestion se fait par invagination de la membrane plasmique qui se déprime en cupule, puis emprisonne le liquide à ingérer dans une petite vésicule qui sera libérée dans le cytoplasme.
-Ce phénomène se produit en permanence dans la plupart des cellules eucaryotes.
-Pinocytose à vésicules recouvertes ou endocytose spécifique
-L'observation au microscope électronique montre que les vésicules de pinocytose sont recouvertes d'un feutrage épais de 15 nanomètre environ, côté cytoplasmique. Ces vésicules proviennent d'invaginations de la membrane que l'on nomme « puits recouverts » et qui se forment dans des régions déterminées de la membrane où sont regroupés des récepteurs membranaires spécifiques.
-</t>
+la phagocytose (« alimentation » de la cellule), qui est l’absorption de grosses particules, voire de cellules, par des vésicules de diamètre toujours supérieur à 250 nm et pouvant atteindre plusieurs micromètres : les phagosomes.</t>
         </is>
       </c>
     </row>
@@ -564,10 +572,87 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pinocytose</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'endocytose en phase liquide correspond au prélèvement d'une gouttelette (diamètre inférieur à 0,1 micromètre) d'un liquide extra cellulaire contenant ou non des petites molécules. L'ingestion se fait par invagination de la membrane plasmique qui se déprime en cupule, puis emprisonne le liquide à ingérer dans une petite vésicule qui sera libérée dans le cytoplasme.
+Ce phénomène se produit en permanence dans la plupart des cellules eucaryotes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Endocytose</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Endocytose</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pinocytose à vésicules recouvertes ou endocytose spécifique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'observation au microscope électronique montre que les vésicules de pinocytose sont recouvertes d'un feutrage épais de 15 nanomètre environ, côté cytoplasmique. Ces vésicules proviennent d'invaginations de la membrane que l'on nomme « puits recouverts » et qui se forment dans des régions déterminées de la membrane où sont regroupés des récepteurs membranaires spécifiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Endocytose</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Endocytose</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Étapes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">1. Formation de puits recouverts, ou puits mantelés 
 Il y a un assemblage spontané sur la face cytoplasmique d'un réseau à mailles hexagonales d'une protéine fibreuse, la clathrine, puis invagination de la membrane en puits recouverts (ou puits mantelés ou puits tapissés).
@@ -577,7 +662,7 @@
 Fixation de ces composés (appelés les ligands) à leurs récepteurs spécifiques (qui sont des protéines intrinsèques) et diffusion des récepteurs « chargés » jusqu'à un puits recouvert en formation.
 Les récepteurs se fixent à des protéines d'adaptation (adaptine) elles-mêmes reliées à la clathrine.
 4. Internalisation des composés fixés à leurs récepteurs par formation de vésicule recouverte 
-La fabrication d'une vésicule à partir d'un puits est très rapide (environ une minute)[2]. Dans les cellules en culture, on estime que la surface occupée par les puits recouverts représente 2 % de celle de la membrane cytoplasmique; 2500 vésicules recouvertes environ s'y forment toutes les minutes.
+La fabrication d'une vésicule à partir d'un puits est très rapide (environ une minute). Dans les cellules en culture, on estime que la surface occupée par les puits recouverts représente 2 % de celle de la membrane cytoplasmique; 2500 vésicules recouvertes environ s'y forment toutes les minutes.
 5. Perte du revêtement de clathrine et migration intracytoplasmique de la vésicule 
 Elle perd rapidement son revêtement dont le rôle est d'engendrer une surface sphérique à partir d'une surface plane. Ce déshabillage, qui nécessite de l'ATP, est indispensable pour que la membrane de la vésicule puisse interagir avec le cytosquelette et ses protéines motrices et que la vésicule puisse être transporté dans le cytosol.
 La clathrine retourne vers la membrane plasmique.
@@ -591,31 +676,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Endocytose</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Endocytose</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Le cholestérol, présent sous deux formes dans les vaisseaux sanguins : lipoprotéine de basse densité (LDL) et lipoprotéine de haute densité (HDL). Le cholestérol nécessaire au milieu intracellulaire est pris dans la matrice extracellulaire par pinocytose du LDL.
 La phagocytose : mécanisme permettant d’ingérer un corps étranger afin de le digérer (animaux unicellulaires) ou de le détruire (macrophages du système immunitaire ou globules blancs) puis des lysosomes se positionnent autour de la vésicule et déversent leurs enzymes qui vont hydrolyser le corps ainsi ingéré.</t>
